--- a/results-iris1-10-times/output_1_iris1_new_tuning_summary.xlsx
+++ b/results-iris1-10-times/output_1_iris1_new_tuning_summary.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,6 +98,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,13 +155,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -182,10 +192,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="D2:D3 D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -456,11 +466,11 @@
   </sheetPr>
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35"/>
@@ -490,8 +500,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">AVERAGE(Sheet1!D2:D11)</f>
+      <c r="D2" s="2" t="n">
         <v>0.963</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -508,8 +517,7 @@
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">AVERAGE(Sheet2!D2:D9)</f>
+      <c r="D3" s="2" t="n">
         <v>0.957916666666667</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -577,7 +585,7 @@
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.953</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -628,7 +636,7 @@
       <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.96666666666667</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -657,10 +665,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="D2:D3 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -885,10 +893,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="D2:D3 D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1159,10 +1167,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="D2:D3 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1433,10 +1441,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D2:D3 D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1713,10 +1721,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="D2:D3 A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1987,10 +1995,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="D2:D3 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -2261,10 +2269,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:D3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -2535,10 +2543,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D2:D3 D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
